--- a/Assets/Excel/InterestRateBaseTable.xlsx
+++ b/Assets/Excel/InterestRateBaseTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D51E6-867B-4365-9548-997F2FD37F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D2FF11-464B-4AE0-AD60-73AFADE6CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="InterestRateBaseTable" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45ABD2-614E-46B7-9465-64E7A16B2051}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -702,7 +702,7 @@
         <v>100000000001</v>
       </c>
       <c r="B5" s="1">
-        <v>1977</v>
+        <v>1300</v>
       </c>
       <c r="C5" s="1">
         <v>3.1E-2</v>
@@ -746,7 +746,7 @@
         <v>100000000002</v>
       </c>
       <c r="B6" s="1">
-        <v>1978</v>
+        <v>1301</v>
       </c>
       <c r="C6" s="1">
         <v>4.1000000000000002E-2</v>
@@ -790,7 +790,7 @@
         <v>100000000003</v>
       </c>
       <c r="B7" s="1">
-        <v>1979</v>
+        <v>1302</v>
       </c>
       <c r="C7" s="1">
         <v>3.1E-2</v>
@@ -834,7 +834,7 @@
         <v>100000000004</v>
       </c>
       <c r="B8" s="1">
-        <v>1980</v>
+        <v>1303</v>
       </c>
       <c r="C8" s="1">
         <v>4.1000000000000002E-2</v>
@@ -878,7 +878,7 @@
         <v>100000000005</v>
       </c>
       <c r="B9" s="1">
-        <v>1981</v>
+        <v>1304</v>
       </c>
       <c r="C9" s="1">
         <v>3.1E-2</v>
@@ -922,7 +922,7 @@
         <v>100000000006</v>
       </c>
       <c r="B10" s="1">
-        <v>1982</v>
+        <v>1305</v>
       </c>
       <c r="C10" s="1">
         <v>4.1000000000000002E-2</v>
@@ -966,7 +966,7 @@
         <v>100000000007</v>
       </c>
       <c r="B11" s="1">
-        <v>1983</v>
+        <v>1306</v>
       </c>
       <c r="C11" s="1">
         <v>3.1E-2</v>
@@ -1010,7 +1010,7 @@
         <v>100000000008</v>
       </c>
       <c r="B12" s="1">
-        <v>1984</v>
+        <v>1307</v>
       </c>
       <c r="C12" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1054,7 +1054,7 @@
         <v>100000000009</v>
       </c>
       <c r="B13" s="1">
-        <v>1985</v>
+        <v>1308</v>
       </c>
       <c r="C13" s="1">
         <v>3.1E-2</v>
@@ -1098,7 +1098,7 @@
         <v>100000000010</v>
       </c>
       <c r="B14" s="1">
-        <v>1986</v>
+        <v>1309</v>
       </c>
       <c r="C14" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1142,7 +1142,7 @@
         <v>100000000011</v>
       </c>
       <c r="B15" s="1">
-        <v>1987</v>
+        <v>1310</v>
       </c>
       <c r="C15" s="1">
         <v>3.1E-2</v>
@@ -1186,7 +1186,7 @@
         <v>100000000012</v>
       </c>
       <c r="B16" s="1">
-        <v>1988</v>
+        <v>1311</v>
       </c>
       <c r="C16" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1230,7 +1230,7 @@
         <v>100000000013</v>
       </c>
       <c r="B17" s="1">
-        <v>1989</v>
+        <v>1312</v>
       </c>
       <c r="C17" s="1">
         <v>3.1E-2</v>
@@ -1274,7 +1274,7 @@
         <v>100000000014</v>
       </c>
       <c r="B18" s="1">
-        <v>1990</v>
+        <v>1313</v>
       </c>
       <c r="C18" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1318,7 +1318,7 @@
         <v>100000000015</v>
       </c>
       <c r="B19" s="1">
-        <v>1991</v>
+        <v>1314</v>
       </c>
       <c r="C19" s="1">
         <v>3.1E-2</v>
@@ -1362,7 +1362,7 @@
         <v>100000000016</v>
       </c>
       <c r="B20" s="1">
-        <v>1992</v>
+        <v>1315</v>
       </c>
       <c r="C20" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1406,7 +1406,7 @@
         <v>100000000017</v>
       </c>
       <c r="B21" s="1">
-        <v>1993</v>
+        <v>1316</v>
       </c>
       <c r="C21" s="1">
         <v>3.1E-2</v>
@@ -1450,7 +1450,7 @@
         <v>100000000018</v>
       </c>
       <c r="B22" s="1">
-        <v>1994</v>
+        <v>1317</v>
       </c>
       <c r="C22" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1494,7 +1494,7 @@
         <v>100000000019</v>
       </c>
       <c r="B23" s="1">
-        <v>1995</v>
+        <v>1318</v>
       </c>
       <c r="C23" s="1">
         <v>3.1E-2</v>
@@ -1538,7 +1538,7 @@
         <v>100000000020</v>
       </c>
       <c r="B24" s="1">
-        <v>1996</v>
+        <v>1319</v>
       </c>
       <c r="C24" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1582,7 +1582,7 @@
         <v>100000000021</v>
       </c>
       <c r="B25" s="1">
-        <v>1997</v>
+        <v>1320</v>
       </c>
       <c r="C25" s="1">
         <v>3.1E-2</v>
@@ -1626,7 +1626,7 @@
         <v>100000000022</v>
       </c>
       <c r="B26" s="1">
-        <v>1998</v>
+        <v>1321</v>
       </c>
       <c r="C26" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1670,7 +1670,7 @@
         <v>100000000023</v>
       </c>
       <c r="B27" s="1">
-        <v>1999</v>
+        <v>1322</v>
       </c>
       <c r="C27" s="1">
         <v>3.1E-2</v>
@@ -1714,7 +1714,7 @@
         <v>100000000024</v>
       </c>
       <c r="B28" s="1">
-        <v>2000</v>
+        <v>1323</v>
       </c>
       <c r="C28" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1758,7 +1758,7 @@
         <v>100000000025</v>
       </c>
       <c r="B29" s="1">
-        <v>2001</v>
+        <v>1324</v>
       </c>
       <c r="C29" s="1">
         <v>3.1E-2</v>
@@ -1802,7 +1802,7 @@
         <v>100000000026</v>
       </c>
       <c r="B30" s="1">
-        <v>2002</v>
+        <v>1325</v>
       </c>
       <c r="C30" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1846,7 +1846,7 @@
         <v>100000000027</v>
       </c>
       <c r="B31" s="1">
-        <v>2003</v>
+        <v>1326</v>
       </c>
       <c r="C31" s="1">
         <v>3.1E-2</v>
@@ -1890,7 +1890,7 @@
         <v>100000000028</v>
       </c>
       <c r="B32" s="1">
-        <v>2004</v>
+        <v>1327</v>
       </c>
       <c r="C32" s="1">
         <v>4.1000000000000002E-2</v>
@@ -1934,7 +1934,7 @@
         <v>100000000029</v>
       </c>
       <c r="B33" s="1">
-        <v>2005</v>
+        <v>1328</v>
       </c>
       <c r="C33" s="1">
         <v>3.1E-2</v>
@@ -1978,7 +1978,7 @@
         <v>100000000030</v>
       </c>
       <c r="B34" s="1">
-        <v>2006</v>
+        <v>1329</v>
       </c>
       <c r="C34" s="1">
         <v>4.1000000000000002E-2</v>
@@ -2022,7 +2022,7 @@
         <v>100000000031</v>
       </c>
       <c r="B35" s="1">
-        <v>2007</v>
+        <v>1330</v>
       </c>
       <c r="C35" s="1">
         <v>3.1E-2</v>
@@ -2066,7 +2066,7 @@
         <v>100000000032</v>
       </c>
       <c r="B36" s="1">
-        <v>2008</v>
+        <v>1331</v>
       </c>
       <c r="C36" s="1">
         <v>4.1000000000000002E-2</v>
@@ -2110,7 +2110,7 @@
         <v>100000000033</v>
       </c>
       <c r="B37" s="1">
-        <v>2009</v>
+        <v>1332</v>
       </c>
       <c r="C37" s="1">
         <v>3.1E-2</v>
@@ -2154,7 +2154,7 @@
         <v>100000000034</v>
       </c>
       <c r="B38" s="1">
-        <v>2010</v>
+        <v>1333</v>
       </c>
       <c r="C38" s="1">
         <v>4.1000000000000002E-2</v>
@@ -2198,7 +2198,7 @@
         <v>100000000035</v>
       </c>
       <c r="B39" s="1">
-        <v>2011</v>
+        <v>1334</v>
       </c>
       <c r="C39" s="1">
         <v>3.1E-2</v>
@@ -2242,7 +2242,7 @@
         <v>100000000036</v>
       </c>
       <c r="B40" s="1">
-        <v>2012</v>
+        <v>1335</v>
       </c>
       <c r="C40" s="1">
         <v>4.1000000000000002E-2</v>
@@ -2286,7 +2286,7 @@
         <v>100000000037</v>
       </c>
       <c r="B41" s="1">
-        <v>2013</v>
+        <v>1336</v>
       </c>
       <c r="C41" s="1">
         <v>3.1E-2</v>
@@ -2330,7 +2330,7 @@
         <v>100000000038</v>
       </c>
       <c r="B42" s="1">
-        <v>2014</v>
+        <v>1337</v>
       </c>
       <c r="C42" s="1">
         <v>4.1000000000000002E-2</v>
@@ -2374,7 +2374,7 @@
         <v>100000000039</v>
       </c>
       <c r="B43" s="1">
-        <v>2015</v>
+        <v>1338</v>
       </c>
       <c r="C43" s="1">
         <v>3.1E-2</v>
@@ -2418,7 +2418,7 @@
         <v>100000000040</v>
       </c>
       <c r="B44" s="1">
-        <v>2016</v>
+        <v>1339</v>
       </c>
       <c r="C44" s="1">
         <v>2.1000000000000001E-2</v>
@@ -2462,7 +2462,7 @@
         <v>100000000041</v>
       </c>
       <c r="B45" s="1">
-        <v>2017</v>
+        <v>1340</v>
       </c>
       <c r="C45" s="1">
         <v>1.0999999999999999E-2</v>
@@ -2506,7 +2506,7 @@
         <v>100000000042</v>
       </c>
       <c r="B46" s="1">
-        <v>2018</v>
+        <v>1341</v>
       </c>
       <c r="C46" s="1">
         <v>1E-3</v>
@@ -2550,7 +2550,7 @@
         <v>100000000043</v>
       </c>
       <c r="B47" s="1">
-        <v>2019</v>
+        <v>1342</v>
       </c>
       <c r="C47" s="1">
         <v>3.1E-2</v>
@@ -2594,7 +2594,7 @@
         <v>100000000044</v>
       </c>
       <c r="B48" s="1">
-        <v>2020</v>
+        <v>1343</v>
       </c>
       <c r="C48" s="1">
         <v>4.1000000000000002E-2</v>
@@ -2638,7 +2638,7 @@
         <v>100000000045</v>
       </c>
       <c r="B49" s="1">
-        <v>2021</v>
+        <v>1344</v>
       </c>
       <c r="C49" s="1">
         <v>3.1E-2</v>
@@ -2682,7 +2682,7 @@
         <v>100000000046</v>
       </c>
       <c r="B50" s="1">
-        <v>2022</v>
+        <v>1345</v>
       </c>
       <c r="C50" s="1">
         <v>2.1000000000000001E-2</v>
@@ -2726,7 +2726,7 @@
         <v>100000000047</v>
       </c>
       <c r="B51" s="1">
-        <v>2023</v>
+        <v>1346</v>
       </c>
       <c r="C51" s="1">
         <v>1.0999999999999999E-2</v>
